--- a/medicine/Mort/Décès_en_1905/Décès_en_1905.xlsx
+++ b/medicine/Mort/Décès_en_1905/Décès_en_1905.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -509,7 +521,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,7 +539,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1er janvier : Benoît Langénieux, cardinal français, archevêque de Reims (° 15 octobre 1824).
 6 janvier : Charles-Henri Michel, peintre, dessinateur et pastelliste français (° 14 janvier 1817).
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +579,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1er février : Oswald Achenbach, peintre allemand  (° 2 février 1827).
 2 février : Henri Germain, banquier, fondateur du Crédit lyonnais (° 19 février 1824).
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,7 +618,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>4 mars : Eugène Plasky, peintre belge (° 22 juillet 1851).
 6 mars : Auguste Lambermont, homme politique belge (° 25 mars 1819).
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,7 +655,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>4 avril : Constantin Meunier, peintre et sculpteur belge (° 12 avril 1831).
 6 avril : Henry Benedict Medlicott, géologue britannique (° 3 août 1829).
@@ -651,7 +671,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -669,7 +689,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>9 mai : Charles Devillié, peintre français (° 10 mars 1850).
 13 mai : Armand-Auguste Balouzet, peintre paysagiste français (° 18 février 1858).
@@ -688,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -706,7 +728,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>6 juin :
 Léon Jouret, musicologue et compositeur belge (° 17 octobre 1828).
@@ -724,7 +748,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -742,7 +766,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>27 juillet : Louis Antoine Capdevielle, peintre français (° 9 mai 1849).
 29 juillet : Onésime Cresté, prêtre catholique, éducateur, lettré et musicien français (° 11 février 1853).</t>
@@ -755,7 +781,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -773,7 +799,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1er août : Jean-Baptiste Dorval, peintre français (° 15 avril 1839).
 5 août : Georges Montbard, caricaturiste, dessinateur, peintre et aquafortiste français (° 2 août 1841).
@@ -789,7 +817,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -807,7 +835,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>5 septembre : Miguel Cané, journaliste, écrivain, avocat, diplomate, homme politique et haut fonctionnaire argentin (° 27 janvier 1851).
 6 septembre : Léon Garnier, compositeur et parolier français (° 1856).
@@ -825,7 +855,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -843,7 +873,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>3 octobre : José-Maria de Heredia, poète, écrivain et traducteur d'origine cubaine, né sujet espagnol puis naturalisé français  (° 22 novembre 1842).
 4 octobre : Pier Celestino Gilardi, peintre et sculpteur italien (° 16 septembre 1837).
@@ -863,7 +895,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -881,7 +913,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1er novembre : Isidore Verheyden, peintre belge (° 24 janvier 1846).
 15 novembre :  Antonio Moscheni, frère jésuite, missionnaire et peintre religieux italien (° 17 janvier 1854).</t>
@@ -894,7 +928,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1905</t>
+          <t>Décès_en_1905</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -912,7 +946,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>8 décembre : Chen Tianhua, révolutionnaire et homme politique chinois (° 1875).
 15 décembre : Pierre Méjanel, peintre et illustrateur français (° 11 mars 1837).
